--- a/DongAERP/Content/Report/ReportDetailtByMakets.xlsx
+++ b/DongAERP/Content/Report/ReportDetailtByMakets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0749395C-0F3B-4A07-90F4-6F241A1CA45F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2C3C84-859C-452B-8E52-FFB9B639A1E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDADBC8A-6B6C-45FD-98E5-87326587A42E}"/>
   </bookViews>
@@ -500,6 +500,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
     <col min="5" max="5" width="17.109375" customWidth="1"/>
